--- a/biology/Histoire de la zoologie et de la botanique/Franz_Speta/Franz_Speta.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Franz_Speta/Franz_Speta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Franz Speta (22 décembre 1941 - 5 décembre 2015) est un botaniste autrichien. Il est spécialisé dans les plantes à bulbe, en particulier les Hyacinthaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Franz Speta travaille comme apprenti pour un clerc. Il étudie ensuite à l'Université de Vienne dans le département de botanique et de zoologie. Il écrit avec des professeurs tels que Lothar Geitler et Tschermak Woess sur « l'évolution et la caryologie des élaiosomes en fruits et en graines ». En 1972, il obtient un doctorat.
 À partir de 1970, il est chercheur associé au musée provincial de Haute-Autriche de Linz, d'abord comme directeur de la botanique et des invertébrés, puis en 1985 comme directeur adjoint du musée national et de 1990 à 1991 comme directeur par intérim. De 1993 à 2003, il dirige le nouveau centre de biologie du musée national.
@@ -544,10 +558,12 @@
           <t>Recherche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Franz Speta axe ses recherches sur les plantes à bulbe, en particulier les Hyacinthaceae concentrant Scilla et Ornithogalum. D'autres sujets sont les tribus Antirrhineae, les Scrophulariaceae et les Pinguicula (Lentibulariaceae). Il a publié une centaine d'articles scientifiques.
-Il a également publié environ 50 ouvrages biographiques, principalement sur des botanistes[1].
+Il a également publié environ 50 ouvrages biographiques, principalement sur des botanistes.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre végétal Spetaea est nommé d'après Franz Speta.
 </t>
